--- a/xlsx/藏语_intext.xlsx
+++ b/xlsx/藏语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1260">
   <si>
     <t>藏语</t>
   </si>
@@ -29,7 +29,7 @@
     <t>藏区</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_藏语</t>
+    <t>政策_政策_维基百科_藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87%E5%AD%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>安多語</t>
+    <t>安多语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%B7%B4%E8%AF%AD</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>中古藏語</t>
+    <t>中古藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%8F%A4%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>近古藏語</t>
+    <t>近古藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%9A%E5%9C%B0%E5%8C%BA</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/THL%E8%97%8F%E6%96%87%E8%BD%89%E5%AF%AB</t>
   </si>
   <si>
-    <t>THL藏文轉寫</t>
+    <t>THL藏文转写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>藏語支</t>
+    <t>藏语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
@@ -299,31 +299,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>古藏語</t>
+    <t>古藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典藏語</t>
+    <t>古典藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>標準藏語</t>
+    <t>标准藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%96%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>宗喀語</t>
+    <t>宗喀语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E9%87%91%E8%AF%AD</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%8F%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>丹珠爾</t>
+    <t>丹珠尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%90%A8%E5%B0%94%E7%8E%8B%E4%BC%A0</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>藏語語法</t>
+    <t>藏语语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%AF%8D</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>屈折變化</t>
+    <t>屈折变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%88%A9%E8%BD%AC%E5%86%99%E7%B3%BB%E7%BB%9F</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AF%AD</t>
@@ -539,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E5%90%88%E8%AA%9E</t>
   </si>
   <si>
-    <t>綜合語</t>
+    <t>综合语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E5%BA%8F</t>
   </si>
   <si>
-    <t>語序</t>
+    <t>语序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%AE%BE%E8%B0%93%E7%BB%93%E6%9E%84</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C-%E9%80%9A%E6%A0%BC%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>作-通格語言</t>
+    <t>作-通格语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A0%BC</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%BC%A2%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始漢藏語</t>
+    <t>原始汉藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E8%97%8F%E7%B7%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始藏緬語</t>
+    <t>原始藏缅语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E8%BE%85%E9%9F%B3</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E9%9F%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>藏語音系</t>
+    <t>藏语音系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E9%99%84%E6%A0%87%E6%96%87%E5%AD%97</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%89%E5%A4%AE%E5%98%89%E6%8E%AA%E8%A9%A9%E6%AD%8C</t>
   </si>
   <si>
-    <t>倉央嘉措詩歌</t>
+    <t>仓央嘉措诗歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD%E6%96%B9%E8%A8%80</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E6%96%87%E8%97%8F%E6%96%87%E8%BD%89%E5%AF%AB%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>梵文藏文轉寫體系</t>
+    <t>梵文藏文转写体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E3%80%8A%E8%97%8F%E6%96%87%E6%8B%BC%E9%9F%B3%E6%95%99%E6%9D%90%EF%BC%88%E6%8B%89%E8%90%A8%E9%9F%B3%EF%BC%89%E3%80%8B%E6%96%B9%E6%A1%88</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://bo.wikipedia.org/wiki/</t>
@@ -713,25 +713,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E8%97%8F%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>衛藏方言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%A0%AD%E9%AB%94</t>
   </si>
   <si>
-    <t>無頭體</t>
+    <t>无头体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%A0%AD%E9%AB%94</t>
   </si>
   <si>
-    <t>有頭體</t>
+    <t>有头体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87%E8%BD%AC%E5%86%99%E7%B3%BB%E7%BB%9F</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/USLC%E8%97%8F%E6%96%87%E8%BD%89%E5%AF%AB</t>
   </si>
   <si>
-    <t>USLC藏文轉寫</t>
+    <t>USLC藏文转写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
@@ -767,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%81%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>閱聽人</t>
+    <t>阅听人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>藏語盲文</t>
+    <t>藏语盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD%E6%89%8B%E8%AF%AD</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%96%80%E8%AA%9E%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>宗喀語盲文</t>
+    <t>宗喀语盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E6%B4%9B%E8%AF%AD</t>
@@ -815,21 +812,18 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%AD%E5%9C%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>Template talk-中國語言</t>
+    <t>Template talk-中国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>中國語言</t>
+    <t>中国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
@@ -839,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>官話</t>
+    <t>官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
+    <t>现代标准汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>北京官話</t>
+    <t>北京官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E5%AE%98%E8%AF%9D</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>中原官話</t>
+    <t>中原官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E9%93%B6%E5%AE%98%E8%AF%9D</t>
@@ -887,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>江淮官話</t>
+    <t>江淮官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>西南官話</t>
+    <t>西南官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E8%AF%AD</t>
@@ -911,19 +905,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%A2%81%E7%89%87</t>
   </si>
   <si>
-    <t>呂梁片</t>
+    <t>吕梁片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BB%A8%E7%89%87</t>
   </si>
   <si>
-    <t>上黨片</t>
+    <t>上党片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%87%BA%E7%89%87</t>
   </si>
   <si>
-    <t>五臺片</t>
+    <t>五台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AF%E6%96%B0%E7%89%87</t>
@@ -941,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%91%BC%E7%89%87</t>
   </si>
   <si>
-    <t>張呼片</t>
+    <t>张呼片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E5%BB%B6%E7%89%87</t>
@@ -959,19 +953,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8C%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩北語</t>
+    <t>闽北语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%9D%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩東語</t>
+    <t>闽东语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E4%B8%AD%E8%AF%AD</t>
@@ -983,19 +977,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%86%E4%BB%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>莆仙語</t>
+    <t>莆仙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E5%B0%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>邵將語</t>
+    <t>邵将语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E9%9B%B7%E8%A9%B1</t>
   </si>
   <si>
-    <t>瓊雷話</t>
+    <t>琼雷话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%BC%E6%96%87%E7%89%87</t>
@@ -1049,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BA%97%E7%89%87</t>
   </si>
   <si>
-    <t>上麗片</t>
+    <t>上丽片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%B7%9E%E7%89%87</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>湘語</t>
+    <t>湘语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B0%E6%BA%86%E7%89%87</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>贛語</t>
+    <t>赣语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8C%E9%83%BD%E7%89%87</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E7%80%8F%E7%89%87</t>
   </si>
   <si>
-    <t>宜瀏片</t>
+    <t>宜浏片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B6%E7%89%87</t>
@@ -1109,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%AB%E5%BB%A3%E7%89%87</t>
   </si>
   <si>
-    <t>撫廣片</t>
+    <t>抚广片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E5%BC%8B%E7%89%87</t>
   </si>
   <si>
-    <t>鷹弋片</t>
+    <t>鹰弋片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%9A%E7%89%87</t>
@@ -1127,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%92%E8%B3%87%E7%89%87</t>
   </si>
   <si>
-    <t>耒資片</t>
+    <t>耒资片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%B6%BD%E7%89%87</t>
   </si>
   <si>
-    <t>懷嶽片</t>
+    <t>怀岳片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E7%B6%8F%E7%89%87</t>
   </si>
   <si>
-    <t>洞綏片</t>
+    <t>洞绥片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AF%AD</t>
@@ -1151,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8F%B0%E7%89%87</t>
   </si>
   <si>
-    <t>粵台片</t>
+    <t>粤台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E4%B8%AD%E7%89%87</t>
   </si>
   <si>
-    <t>粵中片</t>
+    <t>粤中片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%80%E5%B7%9E%E7%89%87</t>
@@ -1169,31 +1163,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E9%BE%8D%E7%89%87</t>
   </si>
   <si>
-    <t>寧龍片</t>
+    <t>宁龙片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%BC%93%E7%89%87</t>
   </si>
   <si>
-    <t>銅鼓片</t>
+    <t>铜鼓片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E7%89%87</t>
   </si>
   <si>
-    <t>粵北片</t>
+    <t>粤北片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%A5%BF%E7%89%87</t>
   </si>
   <si>
-    <t>粵西片</t>
+    <t>粤西片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E5%B9%B3%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>饒平客家語</t>
+    <t>饶平客家语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%A4%E8%AF%AD</t>
@@ -1205,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%B5%B7%E7%89%87</t>
   </si>
   <si>
-    <t>粵海片</t>
+    <t>粤海片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%9E%E5%AF%B6%E7%89%87</t>
   </si>
   <si>
-    <t>莞寶片</t>
+    <t>莞宝片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BE%E6%BC%8F%E7%89%87</t>
@@ -1235,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣西平話</t>
+    <t>广西平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E5%9C%9F%E8%A9%B1</t>
   </si>
   <si>
-    <t>粵北土話</t>
+    <t>粤北土话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E5%8D%97%E5%9C%9F%E8%AF%9D</t>
@@ -1289,13 +1283,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>蔡家話</t>
+    <t>蔡家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%A6%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>富馬話</t>
+    <t>富马话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%9C%80%E8%AF%AD</t>
@@ -1307,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%85%92%E8%A8%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢兒言語</t>
+    <t>汉儿言语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>楚語</t>
+    <t>楚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%B6%E8%AF%AD%E6%97%8F</t>
@@ -1415,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%A4%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>布央語</t>
+    <t>布央语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%A0%87%E8%AF%AD</t>
@@ -1427,13 +1421,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A1%E9%9A%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>仡隆語</t>
+    <t>仡隆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%BD%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>木佬語</t>
+    <t>木佬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%BF%E8%AF%AD</t>
@@ -1487,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%AF%E5%83%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>佯僙語</t>
+    <t>佯僙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E6%B3%B0%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>壯泰語支</t>
+    <t>壮泰语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E8%AF%AD</t>
@@ -1517,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>儂語</t>
+    <t>侬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E9%AB%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>臨高語</t>
+    <t>临高语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%AD</t>
@@ -1541,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%A3%E4%BB%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>傣仂語</t>
+    <t>傣仂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E9%87%91%E5%82%A3%E8%AF%AD</t>
@@ -1577,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8C%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>加茂語</t>
+    <t>加茂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8C%E8%AF%AD%E6%94%AF</t>
@@ -1649,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E8%98%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>爾蘇語</t>
+    <t>尔苏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E8%A5%BF%E8%AF%AD</t>
@@ -1661,25 +1655,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%9C%A8%E4%BE%9D%E8%AA%9E</t>
   </si>
   <si>
-    <t>納木依語</t>
+    <t>纳木依语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%88%88%E8%AA%9E</t>
   </si>
   <si>
-    <t>史興語</t>
+    <t>史兴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%BD%9D%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>緬彝語群</t>
+    <t>缅彝语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>彝語支</t>
+    <t>彝语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AF%AD</t>
@@ -1739,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A5%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉祜語</t>
+    <t>拉祜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>基諾語</t>
+    <t>基诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%92%E8%8B%8F%E8%AF%AD</t>
@@ -1781,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>緬語支</t>
+    <t>缅语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E7%93%A6%E8%AF%AD</t>
@@ -1817,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>白語</t>
+    <t>白语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E8%AF%AD%E7%BE%A4</t>
@@ -1883,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BE%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>蘇龍語</t>
+    <t>苏龙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%89%E9%83%BD-%E8%BE%BE%E8%AE%A9%E8%AF%AD%E6%94%AF</t>
@@ -2003,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%90%88%E5%8F%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>察合台語</t>
+    <t>察合台语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%B9%98%E8%AF%AD</t>
@@ -2015,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E7%B4%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>回紇語</t>
+    <t>回纥语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%99%80</t>
@@ -2111,7 +2105,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%B4%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>滿洲語</t>
+    <t>满洲语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E4%BC%AF%E8%AF%AD</t>
@@ -2141,19 +2135,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>女真語</t>
+    <t>女真语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E4%BD%99%EF%BC%8D%E6%96%B0%E7%BD%97%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>扶余－新罗语系</t>
+    <t>扶馀－新罗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
+    <t>中国朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%A5%E4%B8%BD%E8%AF%AD</t>
@@ -2165,13 +2159,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>渤海語</t>
+    <t>渤海语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
@@ -2183,43 +2177,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E8%BC%9D%E8%A9%B1</t>
   </si>
   <si>
-    <t>回輝話</t>
+    <t>回辉话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>達悟語</t>
+    <t>达悟语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>台灣南島語言</t>
+    <t>台湾南岛语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>泰雅語群</t>
+    <t>泰雅语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%A3%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>排灣語群</t>
+    <t>排湾语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%92%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>鄒語群</t>
+    <t>邹语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%87%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>魯凱語</t>
+    <t>鲁凯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E8%AF%AD%E7%B3%BB</t>
@@ -2231,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>京語</t>
+    <t>京语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -2261,7 +2255,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>佤語</t>
+    <t>佤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%AF%AD</t>
@@ -2399,13 +2393,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>誒話</t>
+    <t>诶话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B1%AF%E8%A9%B1</t>
   </si>
   <si>
-    <t>五屯話</t>
+    <t>五屯话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E5%AE%B6%E8%AF%9D</t>
@@ -2429,7 +2423,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9C%9F%E7%94%9F%E8%91%A1%E8%AA%9E</t>
   </si>
   <si>
-    <t>澳門土生葡語</t>
+    <t>澳门土生葡语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B3%BE%E6%B5%9C%E8%8B%B1%E8%AF%AD</t>
@@ -2447,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E5%A5%B4%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈奴語</t>
+    <t>匈奴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%A4%B7%E8%AF%AD</t>
@@ -2459,19 +2453,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國手語</t>
+    <t>中国手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港手語</t>
+    <t>香港手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E6%96%87</t>
@@ -2489,13 +2483,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E9%9B%99%E6%8B%BC%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>漢語雙拼盲文</t>
+    <t>汉语双拼盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E8%B7%A1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>絕跡語言</t>
+    <t>绝迹语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F</t>
@@ -2525,7 +2519,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E6%AD%B7%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>西藏歷史年表</t>
+    <t>西藏历史年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -2579,7 +2573,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%9C%9D%E6%B2%BB%E8%97%8F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>元朝治藏歷史</t>
+    <t>元朝治藏历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%BE%81%E6%9C%8D%E5%90%90%E8%95%83</t>
@@ -2603,7 +2597,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D%E6%B2%BB%E8%97%8F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>明朝治藏歷史</t>
+    <t>明朝治藏历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E6%B4%BE</t>
@@ -2615,25 +2609,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D%E6%B2%BB%E8%97%8F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>清朝治藏歷史</t>
+    <t>清朝治藏历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%8D%80%E5%88%86%E6%B2%BB</t>
   </si>
   <si>
-    <t>藏區分治</t>
+    <t>藏区分治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B2%BB%E8%97%8F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中華民國治藏歷史</t>
+    <t>中华民国治藏历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A7%86%E6%8B%89%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>西姆拉條約</t>
+    <t>西姆拉条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E8%97%8F%E8%BE%B9%E7%95%8C%E7%BA%A0%E7%BA%B7</t>
@@ -2651,7 +2645,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B2%BB%E8%97%8F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>中華人民共和國治藏歷史</t>
+    <t>中华人民共和国治藏历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E5%92%8C%E5%B9%B3%E8%A7%A3%E6%94%BE</t>
@@ -2753,19 +2747,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>康區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E8%97%8F</t>
   </si>
   <si>
-    <t>衛藏</t>
+    <t>卫藏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>西藏經濟</t>
+    <t>西藏经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%B8%81</t>
@@ -2795,15 +2786,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%82%B3%E4%BD%9B%E6%95%99</t>
   </si>
   <si>
-    <t>藏傳佛教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%B5%96%E5%96%87%E5%98%9B</t>
   </si>
   <si>
@@ -2819,7 +2807,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E7%B6%93%E7%AD%92</t>
   </si>
   <si>
-    <t>轉經筒</t>
+    <t>转经筒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E7%A6%85%E9%A2%9D%E5%B0%94%E5%BE%B7%E5%B0%BC</t>
@@ -2831,19 +2819,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%8C%96</t>
   </si>
   <si>
-    <t>漢化</t>
+    <t>汉化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E9%9B%A3%E6%B0%91</t>
   </si>
   <si>
-    <t>西藏難民</t>
+    <t>西藏难民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%97%8F%E5%83%91%E6%B0%91</t>
   </si>
   <si>
-    <t>藏族僑民</t>
+    <t>藏族侨民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%97%8F%E4%BA%BA%E5%90%8D</t>
@@ -2861,7 +2849,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%9B%86</t>
   </si>
   <si>
-    <t>藏曆</t>
+    <t>藏历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E8%8F%9C</t>
@@ -2891,7 +2879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%B1%B1%E7%8D%85%E5%AD%90%E6%97%97</t>
   </si>
   <si>
-    <t>雪山獅子旗</t>
+    <t>雪山狮子旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E5%85%A8%E5%9B%BD%E9%87%8D%E7%82%B9%E6%96%87%E7%89%A9%E4%BF%9D%E6%8A%A4%E5%8D%95%E4%BD%8D%E5%88%97%E8%A1%A8</t>
@@ -2933,7 +2921,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>藏醫學</t>
+    <t>藏医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%8C%BA%E5%85%AB%E5%A4%A7%E7%A5%9E%E5%B1%B1</t>
@@ -3101,7 +3089,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%BF%A6%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩迦巴</t>
+    <t>萨迦巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E6%94%BF%E9%99%A2</t>
@@ -3143,7 +3131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E8%97%8F%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>蒙藏委員會</t>
+    <t>蒙藏委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%97%8F%E5%9C%B0%E6%96%B9</t>
@@ -3221,7 +3209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E6%97%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國民族列表</t>
+    <t>中国民族列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E5%B7%B4%E6%97%8F</t>
@@ -3275,13 +3263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%B5%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>嘉絨人</t>
+    <t>嘉绒人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>白馬人</t>
+    <t>白马人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%B0%94%E5%B7%B4%E4%BA%BA</t>
@@ -3407,13 +3395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8C%E9%83%BD%E9%82%A6%E9%81%94%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>昌都邦達機場</t>
+    <t>昌都邦达机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%96%80%E5%89%87%E5%92%8C%E5%B9%B3%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>日喀則和平機場</t>
+    <t>日喀则和平机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%8A%9D%E7%B1%B3%E6%9E%97%E6%9C%BA%E5%9C%BA</t>
@@ -3431,7 +3419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%BB%E5%9F%8E%E4%BA%9E%E4%B8%81%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>稻城亞丁機場</t>
+    <t>稻城亚丁机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%AE%9A%E6%9C%BA%E5%9C%BA</t>
@@ -3443,7 +3431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8E%9F%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>紅原機場</t>
+    <t>红原机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%AF%A8%E9%BB%84%E9%BE%99%E6%9C%BA%E5%9C%BA</t>
@@ -3497,7 +3485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E4%B8%89%E5%8D%81%E4%B9%9D%E6%97%8F</t>
   </si>
   <si>
-    <t>霍爾三十九族</t>
+    <t>霍尔三十九族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9B%E6%9B%B2%E5%9F%BA%E5%B7%A7</t>
@@ -3533,7 +3521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8A%9B%E6%80%9D%E8%BB%8D%E6%B0%91%E5%85%83%E5%B8%A5%E5%BA%9C</t>
   </si>
   <si>
-    <t>俄力思軍民元帥府</t>
+    <t>俄力思军民元帅府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E5%86%9B%E5%8D%97%E7%96%86%E5%86%9B%E5%8C%BA</t>
@@ -3653,7 +3641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E9%82%8A%E7%89%B9%E5%88%A5%E5%8D%80</t>
   </si>
   <si>
-    <t>川邊特別區</t>
+    <t>川边特别区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E8%97%8F%E7%BA%A0%E7%BA%B7</t>
@@ -3779,7 +3767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%8D%97%E8%97%8F%E6%97%8F%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
   </si>
   <si>
-    <t>黃南藏族自治州</t>
+    <t>黄南藏族自治州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%B4%9B%E8%97%8F%E6%97%8F%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
@@ -7744,7 +7732,7 @@
         <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -7799,10 +7787,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" t="s">
         <v>235</v>
-      </c>
-      <c r="F126" t="s">
-        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7828,10 +7816,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" t="s">
         <v>237</v>
-      </c>
-      <c r="F127" t="s">
-        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7857,10 +7845,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
         <v>239</v>
-      </c>
-      <c r="F128" t="s">
-        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -7915,10 +7903,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>240</v>
+      </c>
+      <c r="F130" t="s">
         <v>241</v>
-      </c>
-      <c r="F130" t="s">
-        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7944,10 +7932,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" t="s">
         <v>239</v>
-      </c>
-      <c r="F131" t="s">
-        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8002,10 +7990,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>242</v>
+      </c>
+      <c r="F133" t="s">
         <v>243</v>
-      </c>
-      <c r="F133" t="s">
-        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -8031,10 +8019,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" t="s">
         <v>245</v>
-      </c>
-      <c r="F134" t="s">
-        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>10</v>
@@ -8089,10 +8077,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>246</v>
+      </c>
+      <c r="F136" t="s">
         <v>247</v>
-      </c>
-      <c r="F136" t="s">
-        <v>248</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8147,10 +8135,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>248</v>
+      </c>
+      <c r="F138" t="s">
         <v>249</v>
-      </c>
-      <c r="F138" t="s">
-        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8176,10 +8164,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>250</v>
+      </c>
+      <c r="F139" t="s">
         <v>251</v>
-      </c>
-      <c r="F139" t="s">
-        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8205,10 +8193,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" t="s">
         <v>253</v>
-      </c>
-      <c r="F140" t="s">
-        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -8234,10 +8222,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>238</v>
+      </c>
+      <c r="F141" t="s">
         <v>239</v>
-      </c>
-      <c r="F141" t="s">
-        <v>240</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8263,10 +8251,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>244</v>
+      </c>
+      <c r="F142" t="s">
         <v>245</v>
-      </c>
-      <c r="F142" t="s">
-        <v>246</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8292,10 +8280,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" t="s">
         <v>255</v>
-      </c>
-      <c r="F143" t="s">
-        <v>256</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8321,10 +8309,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>256</v>
+      </c>
+      <c r="F144" t="s">
         <v>257</v>
-      </c>
-      <c r="F144" t="s">
-        <v>258</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8350,10 +8338,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>258</v>
+      </c>
+      <c r="F145" t="s">
         <v>259</v>
-      </c>
-      <c r="F145" t="s">
-        <v>260</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8379,10 +8367,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>260</v>
+      </c>
+      <c r="F146" t="s">
         <v>261</v>
-      </c>
-      <c r="F146" t="s">
-        <v>262</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -8408,10 +8396,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" t="s">
         <v>263</v>
-      </c>
-      <c r="F147" t="s">
-        <v>264</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8437,10 +8425,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>264</v>
+      </c>
+      <c r="F148" t="s">
         <v>265</v>
-      </c>
-      <c r="F148" t="s">
-        <v>266</v>
       </c>
       <c r="G148" t="n">
         <v>9</v>
@@ -8466,10 +8454,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149" t="s">
         <v>267</v>
-      </c>
-      <c r="F149" t="s">
-        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -8495,10 +8483,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F150" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8524,10 +8512,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8553,10 +8541,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F152" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G152" t="n">
         <v>9</v>
@@ -8582,10 +8570,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8611,10 +8599,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8640,10 +8628,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8669,10 +8657,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8698,10 +8686,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8727,10 +8715,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8756,10 +8744,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8785,10 +8773,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8814,10 +8802,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8843,10 +8831,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8872,10 +8860,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8901,10 +8889,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8930,10 +8918,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8959,10 +8947,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8988,10 +8976,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9017,10 +9005,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -9046,10 +9034,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -9075,10 +9063,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9104,10 +9092,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9133,10 +9121,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9162,10 +9150,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9191,10 +9179,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9220,10 +9208,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9249,10 +9237,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9278,10 +9266,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9307,10 +9295,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9336,10 +9324,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9365,10 +9353,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9394,10 +9382,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9423,10 +9411,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9452,10 +9440,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9481,10 +9469,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9510,10 +9498,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9539,10 +9527,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9568,10 +9556,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9597,10 +9585,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9626,10 +9614,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9655,10 +9643,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9684,10 +9672,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9713,10 +9701,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9742,10 +9730,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9771,10 +9759,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F194" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9800,10 +9788,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9829,10 +9817,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9858,10 +9846,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9887,10 +9875,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9916,10 +9904,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9945,10 +9933,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9974,10 +9962,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10003,10 +9991,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10032,10 +10020,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10061,10 +10049,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10090,10 +10078,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10119,10 +10107,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10148,10 +10136,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10177,10 +10165,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10206,10 +10194,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10235,10 +10223,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10264,10 +10252,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10293,10 +10281,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10322,10 +10310,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10351,10 +10339,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10380,10 +10368,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10409,10 +10397,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10438,10 +10426,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10467,10 +10455,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -10496,10 +10484,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F219" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10525,10 +10513,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10554,10 +10542,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10583,10 +10571,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10612,10 +10600,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10641,10 +10629,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10670,10 +10658,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10699,10 +10687,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10728,10 +10716,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10757,10 +10745,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10786,10 +10774,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10815,10 +10803,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10844,10 +10832,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10873,10 +10861,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10902,10 +10890,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10931,10 +10919,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10960,10 +10948,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10989,10 +10977,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -11018,10 +11006,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11047,10 +11035,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11076,10 +11064,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11105,10 +11093,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11134,10 +11122,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11163,10 +11151,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11192,10 +11180,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11221,10 +11209,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11250,10 +11238,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11279,10 +11267,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11308,10 +11296,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11337,10 +11325,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11366,10 +11354,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11395,10 +11383,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11424,10 +11412,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11453,10 +11441,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11482,10 +11470,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F253" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11511,10 +11499,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11540,10 +11528,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11569,10 +11557,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -11598,10 +11586,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11627,10 +11615,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -11656,10 +11644,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11685,10 +11673,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11714,10 +11702,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11743,10 +11731,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11772,10 +11760,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11801,10 +11789,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11830,10 +11818,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11859,10 +11847,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -11888,10 +11876,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11917,10 +11905,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -11946,10 +11934,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11975,10 +11963,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12004,10 +11992,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12033,10 +12021,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12062,10 +12050,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12091,10 +12079,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12120,10 +12108,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -12149,10 +12137,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12181,7 +12169,7 @@
         <v>233</v>
       </c>
       <c r="F277" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="G277" t="n">
         <v>11</v>
@@ -12236,10 +12224,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>256</v>
+      </c>
+      <c r="F279" t="s">
         <v>257</v>
-      </c>
-      <c r="F279" t="s">
-        <v>258</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12294,10 +12282,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12323,10 +12311,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12352,10 +12340,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F283" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12381,10 +12369,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F284" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12410,10 +12398,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F285" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
@@ -12439,10 +12427,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F286" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12468,10 +12456,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F287" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12497,10 +12485,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F288" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12526,10 +12514,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F289" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G289" t="n">
         <v>4</v>
@@ -12555,10 +12543,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F290" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12584,10 +12572,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F291" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12613,10 +12601,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F292" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12642,10 +12630,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F293" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12671,10 +12659,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F294" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12700,10 +12688,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F295" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12729,10 +12717,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F296" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12758,10 +12746,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F297" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G297" t="n">
         <v>4</v>
@@ -12787,10 +12775,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F298" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12816,10 +12804,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F299" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12845,10 +12833,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F300" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12874,10 +12862,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F301" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12903,10 +12891,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F302" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12932,10 +12920,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F303" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12961,10 +12949,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F304" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -12990,10 +12978,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F305" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G305" t="n">
         <v>18</v>
@@ -13019,10 +13007,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F306" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G306" t="n">
         <v>11</v>
@@ -13048,10 +13036,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F307" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G307" t="n">
         <v>32</v>
@@ -13077,10 +13065,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F308" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G308" t="n">
         <v>40</v>
@@ -13106,10 +13094,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F309" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G309" t="n">
         <v>44</v>
@@ -13135,10 +13123,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13164,10 +13152,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13193,10 +13181,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13222,10 +13210,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13251,10 +13239,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13280,10 +13268,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13309,10 +13297,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13338,10 +13326,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13367,10 +13355,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F318" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13396,10 +13384,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F319" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13425,10 +13413,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F320" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13454,10 +13442,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F321" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13483,10 +13471,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13512,10 +13500,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F323" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13541,10 +13529,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13570,10 +13558,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F325" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13599,10 +13587,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F326" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -13628,10 +13616,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F327" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13657,10 +13645,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F328" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13686,10 +13674,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F329" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13715,10 +13703,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F330" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13744,10 +13732,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F331" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13773,10 +13761,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F332" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13802,10 +13790,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F333" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13831,10 +13819,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F334" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13860,10 +13848,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F335" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13889,10 +13877,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F336" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13918,10 +13906,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F337" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13947,10 +13935,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F338" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13976,10 +13964,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F339" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14005,10 +13993,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F340" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -14034,10 +14022,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F341" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -14063,10 +14051,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F342" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -14092,10 +14080,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F343" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14121,10 +14109,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F344" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14150,10 +14138,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F345" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -14179,10 +14167,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F346" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -14208,10 +14196,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F347" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14237,10 +14225,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F348" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14266,10 +14254,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F349" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14295,10 +14283,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F350" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14324,10 +14312,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F351" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14353,10 +14341,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F352" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14382,10 +14370,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F353" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14411,10 +14399,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F354" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14440,10 +14428,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F355" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14469,10 +14457,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F356" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14498,10 +14486,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F357" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14527,10 +14515,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F358" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14556,10 +14544,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F359" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14585,10 +14573,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F360" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14614,10 +14602,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F361" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14643,10 +14631,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F362" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14672,10 +14660,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F363" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14701,10 +14689,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F364" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14730,10 +14718,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F365" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14759,10 +14747,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F366" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14788,10 +14776,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F367" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14817,10 +14805,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F368" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14846,10 +14834,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F369" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14875,10 +14863,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F370" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14904,10 +14892,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F371" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14933,10 +14921,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F372" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14962,10 +14950,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F373" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14991,10 +14979,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F374" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -15020,10 +15008,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F375" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15049,10 +15037,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F376" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15078,10 +15066,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F377" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -15107,10 +15095,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F378" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15136,10 +15124,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F379" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15165,10 +15153,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F380" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15194,10 +15182,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F381" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15223,10 +15211,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F382" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15252,10 +15240,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F383" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15281,10 +15269,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F384" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15310,10 +15298,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F385" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15339,10 +15327,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F386" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15368,10 +15356,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F387" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15397,10 +15385,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F388" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15426,10 +15414,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F389" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15455,10 +15443,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F390" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15484,10 +15472,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F391" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15513,10 +15501,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F392" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15542,10 +15530,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F393" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15571,10 +15559,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F394" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15600,10 +15588,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F395" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15629,10 +15617,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F396" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15658,10 +15646,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F397" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15687,10 +15675,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F398" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15716,10 +15704,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F399" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15745,10 +15733,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F400" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15774,10 +15762,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F401" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15803,10 +15791,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F402" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15832,10 +15820,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F403" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15861,10 +15849,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F404" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15890,10 +15878,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F405" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15919,10 +15907,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F406" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15948,10 +15936,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F407" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15977,10 +15965,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F408" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16006,10 +15994,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F409" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16035,10 +16023,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F410" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16064,10 +16052,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F411" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16093,10 +16081,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F412" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -16122,10 +16110,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F413" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16151,10 +16139,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F414" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16180,10 +16168,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F415" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16209,10 +16197,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F416" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -16238,10 +16226,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F417" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16267,10 +16255,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F418" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16296,10 +16284,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F419" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16325,10 +16313,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F420" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G420" t="n">
         <v>4</v>
@@ -16354,10 +16342,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F421" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16383,10 +16371,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F422" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16412,10 +16400,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F423" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16441,10 +16429,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F424" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16470,10 +16458,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F425" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16499,10 +16487,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F426" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16528,10 +16516,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F427" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16557,10 +16545,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F428" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16586,10 +16574,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F429" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16615,10 +16603,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F430" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16644,10 +16632,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F431" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16673,10 +16661,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F432" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16702,10 +16690,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F433" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16731,10 +16719,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F434" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16760,10 +16748,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F435" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16789,10 +16777,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F436" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16818,10 +16806,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F437" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16847,10 +16835,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F438" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16876,10 +16864,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F439" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16905,10 +16893,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F440" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G440" t="n">
         <v>6</v>
@@ -16934,10 +16922,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F441" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16963,10 +16951,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F442" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16992,10 +16980,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>250</v>
+      </c>
+      <c r="F443" t="s">
         <v>251</v>
-      </c>
-      <c r="F443" t="s">
-        <v>252</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17021,10 +17009,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F444" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17050,10 +17038,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F445" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G445" t="n">
         <v>19</v>
@@ -17079,10 +17067,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F446" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -17108,10 +17096,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F447" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17137,10 +17125,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F448" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G448" t="n">
         <v>11</v>
@@ -17166,10 +17154,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F449" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -17195,10 +17183,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F450" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -17224,10 +17212,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F451" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17253,10 +17241,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F452" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17282,10 +17270,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F453" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17311,10 +17299,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F454" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17340,10 +17328,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F455" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17369,13 +17357,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F456" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -17398,10 +17386,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F457" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G457" t="n">
         <v>6</v>
@@ -17427,10 +17415,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F458" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17456,10 +17444,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F459" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G459" t="n">
         <v>3</v>
@@ -17485,10 +17473,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F460" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17514,10 +17502,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F461" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17543,10 +17531,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F462" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G462" t="n">
         <v>3</v>
@@ -17572,10 +17560,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F463" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17601,10 +17589,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F464" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17630,10 +17618,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F465" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17659,10 +17647,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F466" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17688,10 +17676,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F467" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17717,10 +17705,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F468" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17746,10 +17734,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F469" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17775,10 +17763,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F470" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17804,10 +17792,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F471" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17833,10 +17821,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F472" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17862,10 +17850,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F473" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17891,10 +17879,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F474" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G474" t="n">
         <v>3</v>
@@ -17920,10 +17908,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F475" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17949,10 +17937,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F476" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17978,10 +17966,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F477" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18007,10 +17995,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F478" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18036,10 +18024,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F479" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18065,10 +18053,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F480" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18094,10 +18082,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F481" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18123,10 +18111,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F482" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G482" t="n">
         <v>3</v>
@@ -18152,10 +18140,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F483" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G483" t="n">
         <v>4</v>
@@ -18181,10 +18169,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F484" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18210,10 +18198,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F485" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18239,10 +18227,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F486" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -18268,10 +18256,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F487" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G487" t="n">
         <v>3</v>
@@ -18297,10 +18285,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F488" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18355,10 +18343,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F490" t="s">
-        <v>912</v>
+        <v>52</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18384,10 +18372,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F491" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G491" t="n">
         <v>4</v>
@@ -18413,10 +18401,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F492" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18442,10 +18430,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F493" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18471,10 +18459,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F494" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18500,10 +18488,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F495" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18529,10 +18517,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F496" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18558,10 +18546,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F497" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18587,10 +18575,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F498" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18674,10 +18662,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F501" t="s">
-        <v>928</v>
+        <v>148</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18703,10 +18691,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F502" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G502" t="n">
         <v>3</v>
@@ -18732,10 +18720,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F503" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18761,10 +18749,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F504" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18790,10 +18778,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F505" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18819,10 +18807,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F506" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18848,10 +18836,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F507" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18877,10 +18865,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F508" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18906,10 +18894,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F509" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18935,10 +18923,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F510" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G510" t="n">
         <v>7</v>
@@ -18964,10 +18952,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F511" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18993,10 +18981,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F512" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19022,10 +19010,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F513" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G513" t="n">
         <v>9</v>
@@ -19051,10 +19039,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F514" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19080,10 +19068,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F515" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19109,10 +19097,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F516" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19138,10 +19126,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F517" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19167,13 +19155,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F518" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -19196,10 +19184,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F519" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G519" t="n">
         <v>3</v>
@@ -19225,10 +19213,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F520" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19283,10 +19271,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F522" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -19312,10 +19300,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F523" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19341,10 +19329,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F524" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -19370,10 +19358,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F525" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -19399,10 +19387,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F526" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19428,10 +19416,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F527" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19457,10 +19445,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="F528" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19486,10 +19474,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F529" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19515,10 +19503,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F530" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19544,10 +19532,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F531" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19573,10 +19561,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F532" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19602,10 +19590,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F533" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19631,10 +19619,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F534" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19660,10 +19648,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F535" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19689,10 +19677,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F536" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19718,10 +19706,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F537" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19747,10 +19735,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F538" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19776,10 +19764,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F539" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19805,10 +19793,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="F540" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19834,10 +19822,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F541" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G541" t="n">
         <v>2</v>
@@ -19863,10 +19851,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="F542" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19892,10 +19880,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F543" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19921,10 +19909,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F544" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19950,10 +19938,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F545" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19979,10 +19967,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F546" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20008,10 +19996,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F547" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20037,10 +20025,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F548" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20066,10 +20054,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F549" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20095,10 +20083,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F550" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20124,10 +20112,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F551" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -20153,10 +20141,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F552" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20182,10 +20170,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F553" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20211,10 +20199,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F554" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20240,10 +20228,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F555" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G555" t="n">
         <v>5</v>
@@ -20269,10 +20257,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F556" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20298,10 +20286,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F557" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20327,10 +20315,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F558" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="G558" t="n">
         <v>2</v>
@@ -20356,10 +20344,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F559" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G559" t="n">
         <v>8</v>
@@ -20385,10 +20373,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F560" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G560" t="n">
         <v>3</v>
@@ -20414,10 +20402,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F561" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G561" t="n">
         <v>4</v>
@@ -20443,10 +20431,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F562" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20472,10 +20460,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F563" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20501,10 +20489,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F564" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G564" t="n">
         <v>4</v>
@@ -20530,10 +20518,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F565" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20559,10 +20547,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F566" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -20588,10 +20576,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F567" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20617,10 +20605,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F568" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G568" t="n">
         <v>3</v>
@@ -20646,10 +20634,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F569" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20675,10 +20663,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F570" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
@@ -20704,10 +20692,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F571" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20733,10 +20721,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F572" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20762,10 +20750,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F573" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20791,10 +20779,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F574" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G574" t="n">
         <v>15</v>
@@ -20820,10 +20808,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F575" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G575" t="n">
         <v>243</v>
@@ -20849,10 +20837,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F576" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G576" t="n">
         <v>6</v>
@@ -20878,10 +20866,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F577" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20907,10 +20895,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F578" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20936,10 +20924,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F579" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20965,10 +20953,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F580" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20994,10 +20982,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F581" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21052,10 +21040,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F583" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21081,10 +21069,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F584" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21110,10 +21098,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F585" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21139,10 +21127,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F586" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21168,10 +21156,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F587" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G587" t="n">
         <v>2</v>
@@ -21197,10 +21185,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F588" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21226,10 +21214,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="F589" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21255,10 +21243,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F590" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21284,10 +21272,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F591" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21313,10 +21301,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F592" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21342,10 +21330,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F593" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21371,10 +21359,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F594" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21400,10 +21388,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F595" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21429,10 +21417,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F596" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21458,10 +21446,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F597" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21487,10 +21475,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F598" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21516,10 +21504,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F599" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21545,10 +21533,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F600" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21574,10 +21562,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F601" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21603,10 +21591,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F602" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21632,10 +21620,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F603" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21661,10 +21649,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F604" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21690,10 +21678,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F605" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21719,10 +21707,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F606" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21748,10 +21736,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F607" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21777,10 +21765,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F608" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21806,10 +21794,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F609" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21835,10 +21823,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F610" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21864,10 +21852,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F611" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21893,10 +21881,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F612" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21922,10 +21910,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F613" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21951,10 +21939,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F614" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21980,10 +21968,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F615" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22009,10 +21997,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F616" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22038,10 +22026,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F617" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22067,10 +22055,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F618" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22096,10 +22084,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F619" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22125,10 +22113,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F620" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22154,10 +22142,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F621" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22183,10 +22171,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F622" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22212,10 +22200,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F623" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22241,10 +22229,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F624" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22270,10 +22258,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F625" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22299,10 +22287,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F626" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22328,10 +22316,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F627" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22357,13 +22345,13 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F628" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -22386,10 +22374,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F629" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22415,10 +22403,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F630" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22444,10 +22432,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F631" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22473,10 +22461,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F632" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22502,10 +22490,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F633" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22531,10 +22519,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F634" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G634" t="n">
         <v>3</v>
@@ -22560,10 +22548,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F635" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22589,13 +22577,13 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F636" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H636" t="s">
         <v>4</v>
@@ -22618,10 +22606,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F637" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22647,10 +22635,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F638" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G638" t="n">
         <v>3</v>
@@ -22676,10 +22664,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F639" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22705,10 +22693,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F640" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22734,10 +22722,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F641" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22763,13 +22751,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F642" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -22792,10 +22780,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F643" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22821,10 +22809,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F644" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G644" t="n">
         <v>2</v>
@@ -22850,10 +22838,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F645" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22879,10 +22867,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F646" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G646" t="n">
         <v>2</v>
@@ -22908,10 +22896,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F647" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22937,10 +22925,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F648" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22966,10 +22954,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F649" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22995,10 +22983,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F650" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23024,10 +23012,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F651" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23053,10 +23041,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F652" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23082,13 +23070,13 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F653" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -23111,10 +23099,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F654" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23140,10 +23128,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F655" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23169,10 +23157,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F656" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23198,10 +23186,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F657" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23233,7 +23221,7 @@
         <v>52</v>
       </c>
       <c r="G658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -23256,10 +23244,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F659" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G659" t="n">
         <v>3</v>
@@ -23285,10 +23273,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F660" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23314,10 +23302,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F661" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23343,10 +23331,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F662" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23372,10 +23360,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F663" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23401,10 +23389,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F664" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23430,10 +23418,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F665" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23459,10 +23447,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F666" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23488,10 +23476,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F667" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23517,10 +23505,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F668" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23546,10 +23534,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F669" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23575,10 +23563,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F670" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23604,10 +23592,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F671" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23633,10 +23621,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F672" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23662,10 +23650,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F673" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23691,10 +23679,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F674" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23720,10 +23708,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F675" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23749,10 +23737,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F676" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23778,10 +23766,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F677" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -23807,10 +23795,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F678" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -23836,10 +23824,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F679" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -23923,10 +23911,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F682" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -23952,10 +23940,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F683" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -23981,10 +23969,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F684" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24010,10 +23998,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F685" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24045,7 +24033,7 @@
         <v>50</v>
       </c>
       <c r="G686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H686" t="s">
         <v>4</v>
@@ -24068,10 +24056,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F687" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -24097,10 +24085,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F688" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24126,10 +24114,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F689" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24155,10 +24143,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F690" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24184,10 +24172,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F691" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24213,10 +24201,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F692" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24300,10 +24288,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F695" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -24329,10 +24317,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F696" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -24358,10 +24346,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F697" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G697" t="n">
         <v>19</v>
@@ -24387,10 +24375,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F698" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
